--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>2016-11-02 03:49:55</t>
   </si>
   <si>
+    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.md</t>
+  </si>
+  <si>
+    <t>e2e\ff4ca007-f0b9-485c-904d-fd61ac214a7d.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:56:31</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -124,10 +136,25 @@
     <t>True</t>
   </si>
   <si>
+    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.d37c0275f3b44857206912caf5d9cf06afe27168.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:56:17</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:57:14</t>
+  </si>
+  <si>
     <t>6dbca37e-ee19-4e7c-b31c-898559327818.33c3686746f2cad6aa423f2949bdacf27b3c99f4.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 03:51:43</t>
+  </si>
+  <si>
+    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.d37c0275f3b44857206912caf5d9cf06afe27168.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:57:34</t>
   </si>
 </sst>
 </file>
@@ -184,8 +211,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -209,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -234,8 +261,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -251,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -309,9 +336,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -322,7 +370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -348,52 +396,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -407,49 +455,101 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>34</v>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
     <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -460,7 +560,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -486,52 +586,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -545,16 +645,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -563,31 +663,83 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>34</v>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
     <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>File Name</t>
   </si>
@@ -37,61 +37,58 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md</t>
+  </si>
+  <si>
+    <t>e2e\19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:18:48</t>
+  </si>
+  <si>
+    <t>4bad256f-2880-4cce-b0e1-fea91db02514.md</t>
+  </si>
+  <si>
+    <t>e2e\4bad256f-2880-4cce-b0e1-fea91db02514.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:13:44</t>
+  </si>
+  <si>
+    <t>544d23ad-c6e0-4e28-8640-c4f67bf310f5.md</t>
+  </si>
+  <si>
+    <t>e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md</t>
+  </si>
+  <si>
+    <t>58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
+  </si>
+  <si>
+    <t>e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
+  </si>
+  <si>
+    <t>e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
+  </si>
+  <si>
     <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.md</t>
   </si>
   <si>
     <t>e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:21:02</t>
-  </si>
-  <si>
-    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md</t>
-  </si>
-  <si>
-    <t>e2e\19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:18:48</t>
-  </si>
-  <si>
-    <t>4bad256f-2880-4cce-b0e1-fea91db02514.md</t>
-  </si>
-  <si>
-    <t>e2e\4bad256f-2880-4cce-b0e1-fea91db02514.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:13:44</t>
-  </si>
-  <si>
-    <t>544d23ad-c6e0-4e28-8640-c4f67bf310f5.md</t>
-  </si>
-  <si>
-    <t>e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md</t>
-  </si>
-  <si>
-    <t>58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
-  </si>
-  <si>
-    <t>e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
+    <t>2016-11-02 04:21:52</t>
   </si>
   <si>
     <t>c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md</t>
@@ -163,73 +160,73 @@
     <t>False</t>
   </si>
   <si>
+    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:18:32</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:19:43</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>4bad256f-2880-4cce-b0e1-fea91db02514.0dad97eda92f227a9cb276d24ad6d0c1a1350959.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:13:29</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:14:28</t>
+  </si>
+  <si>
+    <t>544d23ad-c6e0-4e28-8640-c4f67bf310f5.18164ab7b05def6625e611d5d7bb4c9a82cfb16d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>8d15a2e3fb727261e2a94125ebdebdf9942adcfd.png</t>
+  </si>
+  <si>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
+    <t>ae74153a10fb15b2eac5830a95d95cbce64267af.png</t>
+  </si>
+  <si>
     <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.4cc8cc259add74f22a297c241ec91e10dccf4dbf.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:20:48</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:22:29</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:18:32</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:19:43</t>
-  </si>
-  <si>
-    <t>4bad256f-2880-4cce-b0e1-fea91db02514.0dad97eda92f227a9cb276d24ad6d0c1a1350959.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:13:29</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:14:28</t>
-  </si>
-  <si>
-    <t>544d23ad-c6e0-4e28-8640-c4f67bf310f5.18164ab7b05def6625e611d5d7bb4c9a82cfb16d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>8d15a2e3fb727261e2a94125ebdebdf9942adcfd.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>ae74153a10fb15b2eac5830a95d95cbce64267af.png</t>
+    <t>2016-11-02 04:21:37</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:23:25</t>
   </si>
   <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.zh-cn.xlf</t>
   </si>
   <si>
+    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:20:01</t>
+  </si>
+  <si>
+    <t>4bad256f-2880-4cce-b0e1-fea91db02514.0dad97eda92f227a9cb276d24ad6d0c1a1350959.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:14:47</t>
+  </si>
+  <si>
+    <t>544d23ad-c6e0-4e28-8640-c4f67bf310f5.18164ab7b05def6625e611d5d7bb4c9a82cfb16d.de-de.xlf</t>
+  </si>
+  <si>
     <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.4cc8cc259add74f22a297c241ec91e10dccf4dbf.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:22:47</t>
-  </si>
-  <si>
-    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:20:01</t>
-  </si>
-  <si>
-    <t>4bad256f-2880-4cce-b0e1-fea91db02514.0dad97eda92f227a9cb276d24ad6d0c1a1350959.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:14:47</t>
-  </si>
-  <si>
-    <t>544d23ad-c6e0-4e28-8640-c4f67bf310f5.18164ab7b05def6625e611d5d7bb4c9a82cfb16d.de-de.xlf</t>
+    <t>2016-11-02 04:23:43</t>
   </si>
   <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.de-de.xlf</t>
@@ -366,8 +363,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -425,143 +422,143 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId7"/>
+    <hyperlink ref="B2" display="e2e\19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId8"/>
     <hyperlink ref="B9" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId9"/>
   </hyperlinks>
@@ -582,7 +579,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -600,52 +597,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -659,43 +656,43 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -706,362 +703,362 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="N5" s="0" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="N6" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId10"/>
-    <hyperlink ref="I6" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId11"/>
-    <hyperlink ref="A7" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId12"/>
-    <hyperlink ref="I7" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId13"/>
+    <hyperlink ref="A2" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId8"/>
+    <hyperlink ref="I5" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId9"/>
+    <hyperlink ref="A6" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId10"/>
+    <hyperlink ref="I6" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId11"/>
+    <hyperlink ref="A7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId13"/>
     <hyperlink ref="A8" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId14"/>
     <hyperlink ref="I8" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId15"/>
     <hyperlink ref="A9" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId16"/>
@@ -1084,7 +1081,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -1102,52 +1099,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -1161,16 +1158,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -1179,25 +1176,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="L2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1208,362 +1205,362 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="L3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>70</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId10"/>
-    <hyperlink ref="I6" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId11"/>
-    <hyperlink ref="A7" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId12"/>
-    <hyperlink ref="I7" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId13"/>
+    <hyperlink ref="A2" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId8"/>
+    <hyperlink ref="I5" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId9"/>
+    <hyperlink ref="A6" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId10"/>
+    <hyperlink ref="I6" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId11"/>
+    <hyperlink ref="A7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId13"/>
     <hyperlink ref="A8" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId14"/>
     <hyperlink ref="I8" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId15"/>
     <hyperlink ref="A9" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId16"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-11-02 04:39:39</t>
+    <t>2016-11-02 04:41:33</t>
   </si>
   <si>
     <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
@@ -127,10 +127,10 @@
     <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:39:25</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:40:19</t>
+    <t>2016-11-02 04:41:19</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:42:13</t>
   </si>
   <si>
     <t/>
@@ -151,7 +151,7 @@
     <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:40:36</t>
+    <t>2016-11-02 04:42:31</t>
   </si>
   <si>
     <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-11-02 04:41:33</t>
+    <t>2016-11-02 04:43:25</t>
   </si>
   <si>
     <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
@@ -127,10 +127,10 @@
     <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:41:19</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:42:13</t>
+    <t>2016-11-02 04:43:11</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:44:00</t>
   </si>
   <si>
     <t/>
@@ -151,7 +151,7 @@
     <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:42:31</t>
+    <t>2016-11-02 04:44:19</t>
   </si>
   <si>
     <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
-  </si>
-  <si>
-    <t>e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
+    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md</t>
+  </si>
+  <si>
+    <t>e2e\1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,22 +49,13 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-11-02 04:43:25</t>
-  </si>
-  <si>
-    <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
-  </si>
-  <si>
-    <t>e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:37:08</t>
-  </si>
-  <si>
-    <t>fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
-  </si>
-  <si>
-    <t>e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
+    <t>2016-11-02 04:45:20</t>
+  </si>
+  <si>
+    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.md</t>
+  </si>
+  <si>
+    <t>e2e\670edbe3-948b-43f5-b718-d7f8383d33b6.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -124,13 +115,13 @@
     <t>False</t>
   </si>
   <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:43:11</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:44:00</t>
+    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.823152f22ffe6fe23754a4062526b7d51dabff28.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:45:04</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:45:57</t>
   </si>
   <si>
     <t/>
@@ -139,25 +130,16 @@
     <t>True</t>
   </si>
   <si>
-    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:36:55</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:37:47</t>
-  </si>
-  <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:44:19</t>
-  </si>
-  <si>
-    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:38:05</t>
+    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.897bccd2b6bd1d6724235009a0c80123072bb8d4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.823152f22ffe6fe23754a4062526b7d51dabff28.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:46:16</t>
+  </si>
+  <si>
+    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.897bccd2b6bd1d6724235009a0c80123072bb8d4.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -214,8 +196,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -239,8 +221,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -264,8 +246,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -281,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -356,34 +338,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -394,7 +355,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,52 +381,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -479,43 +440,43 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -529,103 +490,51 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -636,7 +545,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -662,52 +571,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -721,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -739,25 +648,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -771,103 +680,51 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md</t>
-  </si>
-  <si>
-    <t>e2e\1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md</t>
+    <t>8044ce69-e978-409c-8034-3b926dfa5efe.md</t>
+  </si>
+  <si>
+    <t>e2e\8044ce69-e978-409c-8034-3b926dfa5efe.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,13 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-11-02 04:45:20</t>
-  </si>
-  <si>
-    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.md</t>
-  </si>
-  <si>
-    <t>e2e\670edbe3-948b-43f5-b718-d7f8383d33b6.md</t>
+    <t>2016-11-02 04:51:00</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,13 +109,13 @@
     <t>False</t>
   </si>
   <si>
-    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.823152f22ffe6fe23754a4062526b7d51dabff28.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:45:04</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:45:57</t>
+    <t>8044ce69-e978-409c-8034-3b926dfa5efe.3fe97e5f2a72da5ad7bedea435681151d4d5cdb4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:50:46</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:51:43</t>
   </si>
   <si>
     <t/>
@@ -130,16 +124,10 @@
     <t>True</t>
   </si>
   <si>
-    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.897bccd2b6bd1d6724235009a0c80123072bb8d4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.823152f22ffe6fe23754a4062526b7d51dabff28.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:46:16</t>
-  </si>
-  <si>
-    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.897bccd2b6bd1d6724235009a0c80123072bb8d4.de-de.xlf</t>
+    <t>8044ce69-e978-409c-8034-3b926dfa5efe.3fe97e5f2a72da5ad7bedea435681151d4d5cdb4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:52:01</t>
   </si>
 </sst>
 </file>
@@ -196,8 +184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P2" headerRowCount="1">
+  <autoFilter ref="A1:P2"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -221,8 +209,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P2" headerRowCount="1">
+  <autoFilter ref="A1:P2"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -246,8 +234,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -263,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -321,30 +309,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\8044ce69-e978-409c-8034-3b926dfa5efe.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -355,7 +322,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -381,52 +348,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -440,101 +407,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="8044ce69-e978-409c-8034-3b926dfa5efe.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="8044ce69-e978-409c-8034-3b926dfa5efe.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -545,7 +460,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -571,52 +486,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -630,16 +545,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -648,83 +563,31 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="8044ce69-e978-409c-8034-3b926dfa5efe.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="8044ce69-e978-409c-8034-3b926dfa5efe.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -46,7 +46,7 @@
     <t>.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
+    <t>Handed back: not in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 04:56:24</t>
@@ -133,6 +133,9 @@
     <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-11-02 04:58:54</t>
+  </si>
+  <si>
     <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.de-de.xlf</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
   </si>
   <si>
     <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:59:12</t>
   </si>
 </sst>
 </file>
@@ -273,8 +279,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -363,7 +369,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -511,7 +517,7 @@
         <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>36</v>
@@ -553,7 +559,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -639,7 +645,7 @@
         <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -648,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>36</v>
@@ -689,7 +695,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -698,10 +704,10 @@
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>36</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -58,6 +58,18 @@
     <t>e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
   </si>
   <si>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
+  </si>
+  <si>
+    <t>e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:00:01</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -136,6 +148,15 @@
     <t>2016-11-02 04:58:54</t>
   </si>
   <si>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:59:47</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:00:43</t>
+  </si>
+  <si>
     <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.de-de.xlf</t>
   </si>
   <si>
@@ -146,6 +167,12 @@
   </si>
   <si>
     <t>2016-11-02 04:59:12</t>
+  </si>
+  <si>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:01:02</t>
   </si>
 </sst>
 </file>
@@ -202,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -227,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -252,8 +279,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -269,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -347,10 +374,31 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -361,7 +409,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,52 +435,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -446,43 +494,43 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -496,43 +544,93 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>36</v>
+      <c r="P4" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -541,6 +639,8 @@
     <hyperlink ref="I2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId3"/>
     <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
     <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -551,7 +651,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -577,52 +677,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -636,16 +736,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -654,25 +754,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -686,16 +786,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -704,25 +804,75 @@
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>36</v>
+      <c r="P4" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -731,6 +881,8 @@
     <hyperlink ref="I2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId3"/>
     <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
     <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>File Name</t>
   </si>
@@ -58,18 +58,45 @@
     <t>e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
   </si>
   <si>
+    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.md</t>
+  </si>
+  <si>
+    <t>e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:02:02</t>
+  </si>
+  <si>
+    <t>6643e966-a856-4162-8920-bf9cb829a284.md</t>
+  </si>
+  <si>
+    <t>e2e\6643e966-a856-4162-8920-bf9cb829a284.md</t>
+  </si>
+  <si>
     <t>6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
   </si>
   <si>
     <t>e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-11-02 05:00:01</t>
   </si>
   <si>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
+  </si>
+  <si>
+    <t>e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
+  </si>
+  <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
+  </si>
+  <si>
+    <t>e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -148,6 +175,18 @@
     <t>2016-11-02 04:58:54</t>
   </si>
   <si>
+    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.86e90596c087158dc9b7b15493c7e92e53216742.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:01:46</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:03:40</t>
+  </si>
+  <si>
+    <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.zh-cn.xlf</t>
   </si>
   <si>
@@ -157,6 +196,12 @@
     <t>2016-11-02 05:00:43</t>
   </si>
   <si>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.de-de.xlf</t>
   </si>
   <si>
@@ -169,10 +214,25 @@
     <t>2016-11-02 04:59:12</t>
   </si>
   <si>
+    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.86e90596c087158dc9b7b15493c7e92e53216742.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:03:59</t>
+  </si>
+  <si>
+    <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.de-de.xlf</t>
+  </si>
+  <si>
     <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 05:01:02</t>
+  </si>
+  <si>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -229,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -254,8 +314,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -279,8 +339,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -296,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -394,11 +454,95 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId4"/>
+    <hyperlink ref="B4" display="e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -409,7 +553,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,52 +579,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -494,43 +638,43 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -544,43 +688,43 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -594,43 +738,243 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
+      <c r="F5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -639,8 +983,16 @@
     <hyperlink ref="I2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId3"/>
     <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
     <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId14"/>
+    <hyperlink ref="I8" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -651,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -677,52 +1029,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -736,16 +1088,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -754,25 +1106,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -786,16 +1138,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -804,25 +1156,25 @@
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -836,16 +1188,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -854,25 +1206,225 @@
         <v>14</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -881,8 +1433,16 @@
     <hyperlink ref="I2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId3"/>
     <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
     <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId14"/>
+    <hyperlink ref="I8" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-11-02 05:15:08</t>
+    <t>2016-11-02 05:17:00</t>
   </si>
   <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
@@ -109,7 +109,7 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
@@ -118,10 +118,10 @@
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:14:48</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:15:44</t>
+    <t>2016-11-02 05:16:45</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:17:49</t>
   </si>
   <si>
     <t/>
@@ -136,7 +136,7 @@
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:16:04</t>
+    <t>2016-11-02 05:18:08</t>
   </si>
   <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>2016-11-07 06:52:48</t>
   </si>
   <si>
+    <t>a76e6cba-593d-4816-ae50-60ba263a5476.md</t>
+  </si>
+  <si>
+    <t>e2e\a76e6cba-593d-4816-ae50-60ba263a5476.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:59:42</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -124,10 +136,25 @@
     <t>True</t>
   </si>
   <si>
+    <t>a76e6cba-593d-4816-ae50-60ba263a5476.122c563cf74da4ac5e9e8723a49a6cbe539d49ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:59:29</t>
+  </si>
+  <si>
+    <t>2016-11-07 07:00:31</t>
+  </si>
+  <si>
     <t>a14b8ca5-f559-4148-9701-350adb07cd9e.24e393409de0d4860379416983f101ce9b2505f3.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-07 06:54:42</t>
+  </si>
+  <si>
+    <t>a76e6cba-593d-4816-ae50-60ba263a5476.122c563cf74da4ac5e9e8723a49a6cbe539d49ba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 07:00:50</t>
   </si>
 </sst>
 </file>
@@ -184,8 +211,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -209,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -234,8 +261,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -251,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -309,9 +336,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -322,7 +370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -348,52 +396,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -407,49 +455,101 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>34</v>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId2"/>
     <hyperlink ref="I2" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -460,7 +560,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -486,52 +586,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -545,16 +645,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -563,31 +663,83 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>34</v>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId2"/>
     <hyperlink ref="I2" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>File Name</t>
   </si>
@@ -58,6 +58,9 @@
     <t>e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md</t>
   </si>
   <si>
+    <t>2016-11-10 06:40:08</t>
+  </si>
+  <si>
     <t>7a285476-1239-4f37-bbcb-b0733c97d9c2.png</t>
   </si>
   <si>
@@ -154,6 +157,12 @@
     <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-11-10 06:39:53</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:40:46</t>
+  </si>
+  <si>
     <t>25f931f43d712a6c2de0ca828f19f4a945dd49e1.png</t>
   </si>
   <si>
@@ -173,6 +182,9 @@
   </si>
   <si>
     <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:41:07</t>
   </si>
   <si>
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.de-de.xlf</t>
@@ -374,18 +386,18 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
@@ -399,13 +411,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
@@ -419,10 +431,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -480,52 +492,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -539,43 +551,43 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -589,148 +601,148 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -739,43 +751,43 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -826,52 +838,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -885,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -903,25 +915,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -935,148 +947,148 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1085,43 +1097,43 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -52,36 +52,15 @@
     <t>2016-11-10 06:38:00</t>
   </si>
   <si>
-    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.md</t>
-  </si>
-  <si>
-    <t>e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md</t>
-  </si>
-  <si>
-    <t>2016-11-10 06:40:08</t>
-  </si>
-  <si>
-    <t>7a285476-1239-4f37-bbcb-b0733c97d9c2.png</t>
-  </si>
-  <si>
-    <t>e2e\7a285476-1239-4f37-bbcb-b0733c97d9c2.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png</t>
-  </si>
-  <si>
-    <t>e2e\925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png</t>
-  </si>
-  <si>
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
   </si>
   <si>
     <t>e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
   </si>
   <si>
+    <t>2016-11-10 06:42:00</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -154,40 +133,25 @@
     <t>True</t>
   </si>
   <si>
-    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-10 06:39:53</t>
-  </si>
-  <si>
-    <t>2016-11-10 06:40:46</t>
-  </si>
-  <si>
-    <t>25f931f43d712a6c2de0ca828f19f4a945dd49e1.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>b825cd5b3a80bbff46513219541bb97b3919c298.png</t>
-  </si>
-  <si>
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-11-10 06:41:45</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:42:39</t>
+  </si>
+  <si>
     <t>4b740145-cd67-40db-9228-17010fb6e6a3.a1ec94b669a323d09edde52cc75af337817abe04.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-10 06:39:05</t>
   </si>
   <si>
-    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-10 06:41:07</t>
-  </si>
-  <si>
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:42:58</t>
   </si>
 </sst>
 </file>
@@ -244,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -269,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -294,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -311,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -389,73 +353,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\7a285476-1239-4f37-bbcb-b0733c97d9c2.png" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId6"/>
+    <hyperlink ref="B3" display="e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -466,7 +367,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,60 +385,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="32.096752166748" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -551,43 +452,43 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -601,207 +502,51 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="7a285476-1239-4f37-bbcb-b0733c97d9c2.png" r:id="rId6"/>
-    <hyperlink ref="I4" display="7a285476-1239-4f37-bbcb-b0733c97d9c2.png" r:id="rId7"/>
-    <hyperlink ref="A5" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId8"/>
-    <hyperlink ref="I5" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId10"/>
-    <hyperlink ref="I6" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId11"/>
+    <hyperlink ref="A3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -812,7 +557,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -830,60 +575,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="32.096752166748" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -897,16 +642,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -915,25 +660,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -947,16 +692,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
@@ -965,189 +710,33 @@
         <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="7a285476-1239-4f37-bbcb-b0733c97d9c2.png" r:id="rId6"/>
-    <hyperlink ref="I4" display="7a285476-1239-4f37-bbcb-b0733c97d9c2.png" r:id="rId7"/>
-    <hyperlink ref="A5" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId8"/>
-    <hyperlink ref="I5" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId10"/>
-    <hyperlink ref="I6" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId11"/>
+    <hyperlink ref="A3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
